--- a/Dados/16-jun.xlsx
+++ b/Dados/16-jun.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C583"/>
+  <dimension ref="A1:C585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -354,91 +367,95 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>adamantina</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>46</v>
-      </c>
-      <c r="C1" t="n">
-        <v>3</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MUNICIPIO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CASOS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ÓBITOS</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adolfo</t>
+          <t>adamantina</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aguai</t>
+          <t>adolfo</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>aguas da prata</t>
+          <t>aguai</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>aguas de lindoia</t>
+          <t>aguas da prata</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>aguas de santa barbara</t>
+          <t>aguas de lindoia</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>aguas de sao pedro</t>
+          <t>aguas de santa barbara</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -447,63 +464,63 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>agudos</t>
+          <t>aguas de sao pedro</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>alambari</t>
+          <t>agudos</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>alfredo marcondes</t>
+          <t>alambari</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>altair</t>
+          <t>alfredo marcondes</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>altinopolis</t>
+          <t>altair</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -512,24 +529,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>alto alegre</t>
+          <t>altinopolis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>aluminio</t>
+          <t>alto alegre</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -538,167 +555,167 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>alvares florence</t>
+          <t>aluminio</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>alvares machado</t>
+          <t>alvares florence</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>alvaro de carvalho</t>
+          <t>alvares machado</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>alvinlandia</t>
+          <t>alvaro de carvalho</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>americana</t>
+          <t>alvinlandia</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>americo brasiliense</t>
+          <t>americana</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>americo de campos</t>
+          <t>americo brasiliense</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>amparo</t>
+          <t>americo de campos</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>analandia</t>
+          <t>amparo</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>andradina</t>
+          <t>analandia</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>angatuba</t>
+          <t>andradina</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>anhembi</t>
+          <t>angatuba</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>anhumas</t>
+          <t>anhembi</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -707,11 +724,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>aparecida</t>
+          <t>anhumas</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -720,11 +737,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>aparecida d'oeste</t>
+          <t>aparecida</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -733,11 +750,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>apiai</t>
+          <t>aparecida d'oeste</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -746,50 +763,50 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>aracariguama</t>
+          <t>apiai</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>aracatuba</t>
+          <t>aracariguama</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>296</v>
+        <v>33</v>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>aracoiaba da serra</t>
+          <t>aracatuba</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>62</v>
+        <v>296</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>aramina</t>
+          <t>aracoiaba da serra</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -798,154 +815,154 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>arandu</t>
+          <t>aramina</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>arapei</t>
+          <t>arandu</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>araraquara</t>
+          <t>arapei</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>575</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>araras</t>
+          <t>araraquara</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>191</v>
+        <v>575</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>arealva</t>
+          <t>araras</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>areiopolis</t>
+          <t>arealva</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ariranha</t>
+          <t>areiopolis</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>artur nogueira</t>
+          <t>ariranha</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>aruja</t>
+          <t>artur nogueira</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="C43" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>aspasia</t>
+          <t>aruja</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>369</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>assis</t>
+          <t>aspasia</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>atibaia</t>
+          <t>assis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C46" t="n">
         <v>6</v>
@@ -954,24 +971,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>auriflama</t>
+          <t>atibaia</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>avai</t>
+          <t>auriflama</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -980,7 +997,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>avanhandava</t>
+          <t>avai</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -993,50 +1010,50 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>avare</t>
+          <t>avanhandava</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>bady bassitt</t>
+          <t>avare</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>balsamo</t>
+          <t>bady bassitt</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>bananal</t>
+          <t>balsamo</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1045,11 +1062,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>barao de antonina</t>
+          <t>bananal</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1058,11 +1075,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>barbosa</t>
+          <t>barao de antonina</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1071,150 +1088,150 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>bariri</t>
+          <t>barbosa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>barra bonita</t>
+          <t>bariri</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>barra do turvo</t>
+          <t>barra bonita</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>barretos</t>
+          <t>barra do turvo</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>419</v>
+        <v>13</v>
       </c>
       <c r="C59" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>barrinha</t>
+          <t>barretos</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>52</v>
+        <v>419</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>barueri</t>
+          <t>barrinha</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1686</v>
+        <v>52</v>
       </c>
       <c r="C61" t="n">
-        <v>175</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>bastos</t>
+          <t>barueri</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>1686</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>batatais</t>
+          <t>bastos</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>bauru</t>
+          <t>batatais</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>508</v>
+        <v>35</v>
       </c>
       <c r="C64" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>bebedouro</t>
+          <t>bauru</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>48</v>
+        <v>508</v>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>bento de abreu</t>
+          <t>bebedouro</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>bernardino de campos</t>
+          <t>bento de abreu</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1227,76 +1244,76 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>bertioga</t>
+          <t>bernardino de campos</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>bilac</t>
+          <t>bertioga</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>201</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>birigui</t>
+          <t>bilac</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>biritiba mirim</t>
+          <t>birigui</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>boa esperanca do sul</t>
+          <t>biritiba mirim</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>bocaina</t>
+          <t>boa esperanca do sul</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1305,50 +1322,50 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bofete</t>
+          <t>bocaina</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>boituva</t>
+          <t>bofete</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>bom jesus dos perdoes</t>
+          <t>boituva</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>bora</t>
+          <t>bom jesus dos perdoes</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1357,11 +1374,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>boraceia</t>
+          <t>bora</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1370,11 +1387,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>borborema</t>
+          <t>boraceia</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1383,11 +1400,11 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>borebi</t>
+          <t>borborema</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1396,50 +1413,50 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>botucatu</t>
+          <t>borebi</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>braganca paulista</t>
+          <t>botucatu</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>323</v>
+        <v>444</v>
       </c>
       <c r="C82" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>brauna</t>
+          <t>braganca paulista</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>323</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>brejo alegre</t>
+          <t>brauna</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1448,37 +1465,37 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>brodowski</t>
+          <t>brejo alegre</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>brotas</t>
+          <t>brodowski</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>buri</t>
+          <t>brotas</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1487,11 +1504,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>buritama</t>
+          <t>buri</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1500,11 +1517,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>buritizal</t>
+          <t>buritama</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1513,11 +1530,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>cabralia paulista</t>
+          <t>buritizal</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1526,24 +1543,24 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>cabreuva</t>
+          <t>cabralia paulista</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>cacapava</t>
+          <t>cabreuva</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="C92" t="n">
         <v>4</v>
@@ -1552,37 +1569,37 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>cachoeira paulista</t>
+          <t>cacapava</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>caconde</t>
+          <t>cachoeira paulista</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>cafelandia</t>
+          <t>caconde</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1591,89 +1608,89 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>caiabu</t>
+          <t>cafelandia</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>caieiras</t>
+          <t>caiabu</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>477</v>
+        <v>5</v>
       </c>
       <c r="C97" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>caiua</t>
+          <t>caieiras</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>477</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>cajamar</t>
+          <t>caiua</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>cajati</t>
+          <t>cajamar</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>40</v>
+        <v>483</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>cajobi</t>
+          <t>cajati</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>cajuru</t>
+          <t>cajobi</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1682,102 +1699,102 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>campina do monte alegre</t>
+          <t>cajuru</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>campinas</t>
+          <t>campina do monte alegre</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4257</v>
+        <v>24</v>
       </c>
       <c r="C104" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>campo limpo paulista</t>
+          <t>campinas</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>161</v>
+        <v>4257</v>
       </c>
       <c r="C105" t="n">
-        <v>17</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>campos do jordao</t>
+          <t>campo limpo paulista</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>campos novos paulista</t>
+          <t>campos do jordao</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>cananeia</t>
+          <t>campos novos paulista</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>canas</t>
+          <t>cananeia</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>candido mota</t>
+          <t>canas</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1786,11 +1803,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>candido rodrigues</t>
+          <t>candido mota</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1799,37 +1816,37 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>capao bonito</t>
+          <t>candido rodrigues</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C112" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>capela do alto</t>
+          <t>capao bonito</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>capivari</t>
+          <t>capela do alto</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1838,115 +1855,115 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>caraguatatuba</t>
+          <t>capivari</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="C115" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>carapicuiba</t>
+          <t>caraguatatuba</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1708</v>
+        <v>253</v>
       </c>
       <c r="C116" t="n">
-        <v>116</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>cardoso</t>
+          <t>carapicuiba</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>1708</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>casa branca</t>
+          <t>cardoso</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>cassia dos coqueiros</t>
+          <t>casa branca</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>castilho</t>
+          <t>cassia dos coqueiros</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>8</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>catanduva</t>
+          <t>castilho</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="C121" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>catigua</t>
+          <t>catanduva</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>cedral</t>
+          <t>catigua</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -1955,11 +1972,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>cerqueira cesar</t>
+          <t>cedral</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -1968,89 +1985,89 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>cerquilho</t>
+          <t>cerqueira cesar</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>cesario lange</t>
+          <t>cerquilho</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>charqueada</t>
+          <t>cesario lange</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>chavantes</t>
+          <t>charqueada</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>colina</t>
+          <t>chavantes</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>colombia</t>
+          <t>colina</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>conchal</t>
+          <t>colombia</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2059,50 +2076,50 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>conchas</t>
+          <t>conchal</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>15</v>
       </c>
       <c r="C132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>cordeiropolis</t>
+          <t>conchas</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="C133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>coroados</t>
+          <t>cordeiropolis</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>coronel macedo</t>
+          <t>coroados</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -2111,163 +2128,163 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>corumbatai</t>
+          <t>coronel macedo</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>cosmopolis</t>
+          <t>corumbatai</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="C137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>cosmorama</t>
+          <t>cosmopolis</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>cotia</t>
+          <t>cosmorama</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>901</v>
+        <v>7</v>
       </c>
       <c r="C139" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>cravinhos</t>
+          <t>cotia</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>39</v>
+        <v>901</v>
       </c>
       <c r="C140" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>cristais paulista</t>
+          <t>cravinhos</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>cruzeiro</t>
+          <t>cristais paulista</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>cubatao</t>
+          <t>cruzeiro</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1179</v>
+        <v>44</v>
       </c>
       <c r="C143" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>cunha</t>
+          <t>cubatao</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>7</v>
+        <v>1179</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>descalvado</t>
+          <t>cunha</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>diadema</t>
+          <t>descalvado</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2127</v>
+        <v>14</v>
       </c>
       <c r="C146" t="n">
-        <v>134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>dirce reis</t>
+          <t>diadema</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>2127</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>divinolandia</t>
+          <t>dirce reis</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2280,11 +2297,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>dobrada</t>
+          <t>divinolandia</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2293,24 +2310,24 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>dois corregos</t>
+          <t>dobrada</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>dolcinopolis</t>
+          <t>dois corregos</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="n">
         <v>2</v>
@@ -2319,50 +2336,50 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>dourado</t>
+          <t>dolcinopolis</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>dracena</t>
+          <t>dourado</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>duartina</t>
+          <t>dracena</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>dumont</t>
+          <t>duartina</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2371,24 +2388,24 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>echapora</t>
+          <t>dumont</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>eldorado</t>
+          <t>echapora</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C157" t="n">
         <v>1</v>
@@ -2397,37 +2414,37 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>elias fausto</t>
+          <t>eldorado</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>elisiario</t>
+          <t>elias fausto</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>embauba</t>
+          <t>elisiario</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -2436,50 +2453,50 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>embu das artes</t>
+          <t>embauba</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>899</v>
+        <v>10</v>
       </c>
       <c r="C161" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>embu guacu</t>
+          <t>embu das artes</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>206</v>
+        <v>899</v>
       </c>
       <c r="C162" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>emilianopolis</t>
+          <t>embu guacu</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>engenheiro coelho</t>
+          <t>emilianopolis</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -2488,11 +2505,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>espirito santo do pinhal</t>
+          <t>engenheiro coelho</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2501,11 +2518,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>espirito santo do turvo</t>
+          <t>espirito santo do pinhal</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2514,11 +2531,11 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>estiva gerbi</t>
+          <t>espirito santo do turvo</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -2527,11 +2544,11 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>estrela d'oeste</t>
+          <t>estiva gerbi</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -2540,11 +2557,11 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>estrela do norte</t>
+          <t>estrela d'oeste</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -2553,11 +2570,11 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>euclides da cunha paulista</t>
+          <t>estrela do norte</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -2566,76 +2583,76 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>fartura</t>
+          <t>euclides da cunha paulista</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>fernando prestes</t>
+          <t>fartura</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>fernandopolis</t>
+          <t>fernando prestes</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>201</v>
+        <v>5</v>
       </c>
       <c r="C173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ferraz de vasconcelos</t>
+          <t>fernandopolis</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>628</v>
+        <v>201</v>
       </c>
       <c r="C174" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>floreal</t>
+          <t>ferraz de vasconcelos</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>6</v>
+        <v>628</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>florida paulista</t>
+          <t>floreal</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -2644,63 +2661,63 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>franca</t>
+          <t>florida paulista</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="C177" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>francisco morato</t>
+          <t>franca</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>726</v>
+        <v>114</v>
       </c>
       <c r="C178" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>franco da rocha</t>
+          <t>francisco morato</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>608</v>
+        <v>726</v>
       </c>
       <c r="C179" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>gabriel monteiro</t>
+          <t>franco da rocha</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2</v>
+        <v>608</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>garca</t>
+          <t>gabriel monteiro</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -2709,37 +2726,37 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>gastao vidigal</t>
+          <t>garca</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C182" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>gaviao peixoto</t>
+          <t>gastao vidigal</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>general salgado</t>
+          <t>gaviao peixoto</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -2748,11 +2765,11 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>getulina</t>
+          <t>general salgado</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -2761,7 +2778,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>glicerio</t>
+          <t>getulina</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2774,11 +2791,11 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>guaicara</t>
+          <t>glicerio</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -2787,85 +2804,85 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>guaimbe</t>
+          <t>guaicara</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>guaira</t>
+          <t>guaimbe</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>guapiacu</t>
+          <t>guaira</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C190" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>guapiara</t>
+          <t>guapiacu</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="C191" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>guara</t>
+          <t>guapiara</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>guaracai</t>
+          <t>guara</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>4</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>guaraci</t>
+          <t>guaracai</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2878,11 +2895,11 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>guarani d'oeste</t>
+          <t>guaraci</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -2891,11 +2908,11 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>guaranta</t>
+          <t>guarani d'oeste</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -2904,115 +2921,115 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>guararapes</t>
+          <t>guaranta</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>guararema</t>
+          <t>guararapes</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C198" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>guaratingueta</t>
+          <t>guararema</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C199" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>guarei</t>
+          <t>guaratingueta</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>guariba</t>
+          <t>guarei</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>guaruja</t>
+          <t>guariba</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2436</v>
+        <v>55</v>
       </c>
       <c r="C202" t="n">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>guarulhos</t>
+          <t>guaruja</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>4401</v>
+        <v>2436</v>
       </c>
       <c r="C203" t="n">
-        <v>479</v>
+        <v>92</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>guatapara</t>
+          <t>guarulhos</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>3</v>
+        <v>4401</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>479</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>guzolandia</t>
+          <t>guatapara</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -3021,11 +3038,11 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>herculandia</t>
+          <t>guzolandia</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -3034,11 +3051,11 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>holambra</t>
+          <t>herculandia</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -3047,37 +3064,37 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>hortolandia</t>
+          <t>holambra</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>341</v>
+        <v>21</v>
       </c>
       <c r="C208" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>iacanga</t>
+          <t>hortolandia</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2</v>
+        <v>341</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>iacri</t>
+          <t>iacanga</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -3086,11 +3103,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ibate</t>
+          <t>iacri</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -3099,11 +3116,11 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ibira</t>
+          <t>ibate</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -3112,11 +3129,11 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ibirarema</t>
+          <t>ibira</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -3125,89 +3142,89 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ibitinga</t>
+          <t>ibirarema</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="C214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ibiuna</t>
+          <t>ibitinga</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C215" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>icem</t>
+          <t>ibiuna</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>iepe</t>
+          <t>icem</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>igaracu do tiete</t>
+          <t>iepe</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>igarapava</t>
+          <t>igaracu do tiete</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>igarata</t>
+          <t>igarapava</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
@@ -3216,11 +3233,11 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>iguape</t>
+          <t>igarata</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -3229,76 +3246,76 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ilha comprida</t>
+          <t>iguape</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ilha solteira</t>
+          <t>ilha comprida</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ilhabela</t>
+          <t>ilha solteira</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>indaiatuba</t>
+          <t>ilhabela</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="C225" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>indiana</t>
+          <t>indaiatuba</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>indiapora</t>
+          <t>indiana</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -3307,11 +3324,11 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>inubia paulista</t>
+          <t>indiapora</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -3320,11 +3337,11 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ipaussu</t>
+          <t>inubia paulista</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -3333,11 +3350,11 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ipero</t>
+          <t>ipaussu</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -3346,11 +3363,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ipeuna</t>
+          <t>ipero</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -3359,37 +3376,37 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ipigua</t>
+          <t>ipeuna</t>
         </is>
       </c>
       <c r="B232" t="n">
         <v>8</v>
       </c>
       <c r="C232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ipua</t>
+          <t>ipigua</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>iracemapolis</t>
+          <t>ipua</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -3398,50 +3415,50 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>irapua</t>
+          <t>iracemapolis</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>irapuru</t>
+          <t>irapua</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>itabera</t>
+          <t>irapuru</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>itai</t>
+          <t>itabera</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -3450,141 +3467,141 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>itajobi</t>
+          <t>itai</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>itaju</t>
+          <t>itajobi</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>itanhaem</t>
+          <t>itaju</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C241" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>itaoca</t>
+          <t>itanhaem</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>itapecerica da serra</t>
+          <t>itaoca</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>736</v>
+        <v>2</v>
       </c>
       <c r="C243" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>itapetininga</t>
+          <t>itapecerica da serra</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>160</v>
+        <v>736</v>
       </c>
       <c r="C244" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>itapeva</t>
+          <t>itapetininga</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="C245" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>itapevi</t>
+          <t>itapeva</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>822</v>
+        <v>55</v>
       </c>
       <c r="C246" t="n">
-        <v>103</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>itapira</t>
+          <t>itapevi</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>83</v>
+        <v>822</v>
       </c>
       <c r="C247" t="n">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>itapolis</t>
+          <t>itapira</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>itaporanga</t>
+          <t>itapolis</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -3593,24 +3610,24 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>itapui</t>
+          <t>itaporanga</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>itapura</t>
+          <t>itapui</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -3619,89 +3636,89 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>itaquaquecetuba</t>
+          <t>itapura</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>930</v>
+        <v>6</v>
       </c>
       <c r="C252" t="n">
-        <v>108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>itarare</t>
+          <t>itaquaquecetuba</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>5</v>
+        <v>930</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>itariri</t>
+          <t>itarare</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>itatiba</t>
+          <t>itariri</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="C255" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>itatinga</t>
+          <t>itatiba</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>itirapina</t>
+          <t>itatinga</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>itirapua</t>
+          <t>itirapina</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -3710,11 +3727,11 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>itobi</t>
+          <t>itirapua</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -3723,102 +3740,102 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>itu</t>
+          <t>itobi</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>279</v>
+        <v>4</v>
       </c>
       <c r="C260" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>itupeva</t>
+          <t>itu</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>120</v>
+        <v>279</v>
       </c>
       <c r="C261" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ituverava</t>
+          <t>itupeva</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>jaborandi</t>
+          <t>ituverava</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>jaboticabal</t>
+          <t>jaborandi</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C264" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>jacarei</t>
+          <t>jaboticabal</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>429</v>
+        <v>56</v>
       </c>
       <c r="C265" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>jaci</t>
+          <t>jacarei</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="C266" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>jacupiranga</t>
+          <t>jaci</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C267" t="n">
         <v>2</v>
@@ -3827,37 +3844,37 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>jaguariuna</t>
+          <t>jacupiranga</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>jales</t>
+          <t>jaguariuna</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>jambeiro</t>
+          <t>jales</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
@@ -3866,76 +3883,76 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>jandira</t>
+          <t>jambeiro</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="C271" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>jardinopolis</t>
+          <t>jandira</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>62</v>
+        <v>377</v>
       </c>
       <c r="C272" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>jarinu</t>
+          <t>jardinopolis</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C273" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>jau</t>
+          <t>jarinu</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="C274" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>joanopolis</t>
+          <t>jau</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>4</v>
+        <v>289</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>joao ramalho</t>
+          <t>joanopolis</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -3944,232 +3961,232 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>jose bonifacio</t>
+          <t>joao ramalho</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>julio mesquita</t>
+          <t>jose bonifacio</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>jundiai</t>
+          <t>julio mesquita</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>2211</v>
+        <v>1</v>
       </c>
       <c r="C279" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>junqueiropolis</t>
+          <t>jundiai</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>27</v>
+        <v>2211</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>juquia</t>
+          <t>junqueiropolis</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>juquitiba</t>
+          <t>juquia</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C282" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>laranjal paulista</t>
+          <t>juquitiba</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C283" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>lavinia</t>
+          <t>laranjal paulista</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>lavrinhas</t>
+          <t>lavinia</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>leme</t>
+          <t>lavrinhas</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C286" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>lencois paulista</t>
+          <t>leme</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>564</v>
+        <v>85</v>
       </c>
       <c r="C287" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>limeira</t>
+          <t>lencois paulista</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>401</v>
+        <v>564</v>
       </c>
       <c r="C288" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>lindoia</t>
+          <t>limeira</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>5</v>
+        <v>401</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>lins</t>
+          <t>lindoia</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C290" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>lorena</t>
+          <t>lins</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C291" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>lourdes</t>
+          <t>lorena</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>louveira</t>
+          <t>lourdes</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>lucelia</t>
+          <t>louveira</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="C294" t="n">
         <v>5</v>
@@ -4178,33 +4195,33 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>luis antonio</t>
+          <t>lucelia</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>luiziania</t>
+          <t>luis antonio</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>lupercio</t>
+          <t>luiziania</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4217,24 +4234,24 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>macatuba</t>
+          <t>lupercio</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>macaubal</t>
+          <t>macatuba</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="C299" t="n">
         <v>1</v>
@@ -4243,24 +4260,24 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>macedonia</t>
+          <t>macaubal</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>magda</t>
+          <t>macedonia</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -4269,50 +4286,50 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>mairinque</t>
+          <t>magda</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="C302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>mairipora</t>
+          <t>mairinque</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="C303" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>manduri</t>
+          <t>mairipora</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>marapoama</t>
+          <t>manduri</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -4321,7 +4338,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>mariapolis</t>
+          <t>marapoama</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4334,37 +4351,37 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>marilia</t>
+          <t>mariapolis</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>martinopolis</t>
+          <t>marilia</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>matao</t>
+          <t>martinopolis</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -4373,50 +4390,50 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>maua</t>
+          <t>matao</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>1713</v>
+        <v>27</v>
       </c>
       <c r="C310" t="n">
-        <v>118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>mendonca</t>
+          <t>maua</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>19</v>
+        <v>1713</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>meridiano</t>
+          <t>mendonca</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>miguelopolis</t>
+          <t>meridiano</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -4425,193 +4442,193 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>mineiros do tiete</t>
+          <t>miguelopolis</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>miracatu</t>
+          <t>mineiros do tiete</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C315" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>mirandopolis</t>
+          <t>miracatu</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C316" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>mirante do paranapanema</t>
+          <t>mirandopolis</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>mirassol</t>
+          <t>mirante do paranapanema</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>mirassolandia</t>
+          <t>mirassol</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>mococa</t>
+          <t>mirassolandia</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>mogi das cruzes</t>
+          <t>mococa</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1465</v>
+        <v>60</v>
       </c>
       <c r="C321" t="n">
-        <v>127</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>mogi guacu</t>
+          <t>mogi das cruzes</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>257</v>
+        <v>1465</v>
       </c>
       <c r="C322" t="n">
-        <v>9</v>
+        <v>127</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>mogi mirim</t>
+          <t>mogi guacu</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>25</v>
+        <v>257</v>
       </c>
       <c r="C323" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>moncoes</t>
+          <t>moji mirim</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>mongagua</t>
+          <t>moncoes</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="C325" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>monte alegre do sul</t>
+          <t>mongagua</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>monte alto</t>
+          <t>monte alegre do sul</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>monte aprazivel</t>
+          <t>monte alto</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -4620,50 +4637,50 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>monte azul paulista</t>
+          <t>monte aprazivel</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>monte mor</t>
+          <t>monte azul paulista</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C330" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>monteiro lobato</t>
+          <t>monte mor</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>morro agudo</t>
+          <t>monteiro lobato</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -4672,11 +4689,11 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>morungaba</t>
+          <t>morro agudo</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -4685,11 +4702,11 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>motuca</t>
+          <t>morungaba</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -4698,11 +4715,11 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>murutinga do sul</t>
+          <t>motuca</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -4711,63 +4728,63 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>natividade da serra</t>
+          <t>murutinga do sul</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>nazare paulista</t>
+          <t>nafo informado</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>neves paulista</t>
+          <t>natividade da serra</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>nhandeara</t>
+          <t>nazare paulista</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>nipoa</t>
+          <t>neves paulista</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -4776,11 +4793,11 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>nova alianca</t>
+          <t>nhandeara</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -4789,7 +4806,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>nova campina</t>
+          <t>nipoa</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -4802,24 +4819,24 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>nova castilho</t>
+          <t>nova alianca</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>nova europa</t>
+          <t>nova campina</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -4828,11 +4845,11 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>nova granada</t>
+          <t>nova castilho</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -4841,11 +4858,11 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>nova guataporanga</t>
+          <t>nova europa</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -4854,33 +4871,33 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>nova luzitania</t>
+          <t>nova granada</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>nova odessa</t>
+          <t>nova guataporanga</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C348" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>novais</t>
+          <t>nova luzitania</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4893,24 +4910,24 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>novo horizonte</t>
+          <t>nova odessa</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>nuporanga</t>
+          <t>novais</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -4919,24 +4936,24 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>olimpia</t>
+          <t>novo horizonte</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>onda verde</t>
+          <t>nuporanga</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -4945,76 +4962,76 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>oriente</t>
+          <t>olimpia</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>orlandia</t>
+          <t>onda verde</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C355" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>osasco</t>
+          <t>oriente</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>4248</v>
+        <v>2</v>
       </c>
       <c r="C356" t="n">
-        <v>405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>osvaldo cruz</t>
+          <t>orlandia</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ourinhos</t>
+          <t>osasco</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>131</v>
+        <v>4248</v>
       </c>
       <c r="C358" t="n">
-        <v>4</v>
+        <v>405</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ouroeste</t>
+          <t>osvaldo cruz</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -5023,24 +5040,24 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>pacaembu</t>
+          <t>ourinhos</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="C360" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>palestina</t>
+          <t>ouroeste</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -5049,11 +5066,11 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>palmares paulista</t>
+          <t>pacaembu</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C362" t="n">
         <v>2</v>
@@ -5062,11 +5079,11 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>palmeira d'oeste</t>
+          <t>palestina</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -5075,37 +5092,37 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>palmital</t>
+          <t>palmares paulista</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>panorama</t>
+          <t>palmeira d'oeste</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>paraguacu paulista</t>
+          <t>palmital</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C366" t="n">
         <v>1</v>
@@ -5114,24 +5131,24 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>paraibuna</t>
+          <t>panorama</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>paraiso</t>
+          <t>paraguacu paulista</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -5140,115 +5157,115 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>paranapanema</t>
+          <t>paraibuna</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>paranapua</t>
+          <t>paraiso</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>parapua</t>
+          <t>paranapanema</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>pardinho</t>
+          <t>paranapua</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>pariquera acu</t>
+          <t>parapua</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="C373" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>patrocinio paulista</t>
+          <t>pardinho</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>pauliceia</t>
+          <t>pariquera acu</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>paulinia</t>
+          <t>patrocinio paulista</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>401</v>
+        <v>8</v>
       </c>
       <c r="C376" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>paulistania</t>
+          <t>pauliceia</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -5257,37 +5274,37 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>paulo de faria</t>
+          <t>paulinia</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>401</v>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>pederneiras</t>
+          <t>paulistania</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="C379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>pedra bela</t>
+          <t>paulo de faria</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -5296,37 +5313,37 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>pedreira</t>
+          <t>pederneiras</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>pedrinhas paulista</t>
+          <t>pedra bela</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>pedro de toledo</t>
+          <t>pedreira</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -5335,89 +5352,89 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>penapolis</t>
+          <t>pedrinhas paulista</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C384" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>pereira barreto</t>
+          <t>pedro de toledo</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>pereiras</t>
+          <t>penapolis</t>
         </is>
       </c>
       <c r="B386" t="n">
+        <v>22</v>
+      </c>
+      <c r="C386" t="n">
         <v>4</v>
-      </c>
-      <c r="C386" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>peruibe</t>
+          <t>pereira barreto</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C387" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>piedade</t>
+          <t>pereiras</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="C388" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>pilar do sul</t>
+          <t>peruibe</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="C389" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>pindamonhangaba</t>
+          <t>piedade</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C390" t="n">
         <v>6</v>
@@ -5426,37 +5443,37 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>pindorama</t>
+          <t>pilar do sul</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>pinhalzinho</t>
+          <t>pindamonhangaba</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>piquerobi</t>
+          <t>pindorama</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -5465,11 +5482,11 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>piquete</t>
+          <t>pinhalzinho</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -5478,102 +5495,102 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>piracaia</t>
+          <t>piquerobi</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>piracicaba</t>
+          <t>piquete</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1204</v>
+        <v>4</v>
       </c>
       <c r="C396" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>piraju</t>
+          <t>piracaia</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="C397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>pirajui</t>
+          <t>piracicaba</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>16</v>
+        <v>1204</v>
       </c>
       <c r="C398" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>pirangi</t>
+          <t>piraju</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>pirapora do bom jesus</t>
+          <t>pirajui</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>pirapozinho</t>
+          <t>pirangi</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>pirassununga</t>
+          <t>pirapora do bom jesus</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -5582,11 +5599,11 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>piratininga</t>
+          <t>pirapozinho</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C403" t="n">
         <v>2</v>
@@ -5595,11 +5612,11 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>pitangueiras</t>
+          <t>pirassununga</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="C404" t="n">
         <v>1</v>
@@ -5608,76 +5625,76 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>planalto</t>
+          <t>piratininga</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>poa</t>
+          <t>pitangueiras</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="C406" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>poloni</t>
+          <t>planalto</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>pompeia</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>4</v>
+        <v>365</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>pontal</t>
+          <t>poloni</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>pontalinda</t>
+          <t>pompeia</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -5686,76 +5703,76 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>populina</t>
+          <t>pontal</t>
         </is>
       </c>
       <c r="B411" t="n">
+        <v>57</v>
+      </c>
+      <c r="C411" t="n">
         <v>4</v>
-      </c>
-      <c r="C411" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>porangaba</t>
+          <t>pontalinda</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>porto feliz</t>
+          <t>populina</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="C413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>porto ferreira</t>
+          <t>porangaba</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>potim</t>
+          <t>porto feliz</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>potirendaba</t>
+          <t>porto ferreira</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5764,11 +5781,11 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>pracinha</t>
+          <t>potim</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -5777,63 +5794,63 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>pradopolis</t>
+          <t>potirendaba</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>praia grande</t>
+          <t>pracinha</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1949</v>
+        <v>3</v>
       </c>
       <c r="C419" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>pratania</t>
+          <t>pradopolis</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>presidente alves</t>
+          <t>praia grande</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>5</v>
+        <v>1949</v>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>presidente bernardes</t>
+          <t>pratania</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -5842,141 +5859,141 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>presidente epitacio</t>
+          <t>presidente alves</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>presidente prudente</t>
+          <t>presidente bernardes</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="C424" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>presidente venceslau</t>
+          <t>presidente epitacio</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C425" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>promissao</t>
+          <t>presidente prudente</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>quadra</t>
+          <t>presidente venceslau</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>quata</t>
+          <t>promissao</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>queiroz</t>
+          <t>quadra</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>quintana</t>
+          <t>quata</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>rafard</t>
+          <t>queiroz</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>rancharia</t>
+          <t>quintana</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>redencao da serra</t>
+          <t>rafard</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C433" t="n">
         <v>0</v>
@@ -5985,24 +6002,24 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>regente feijo</t>
+          <t>rancharia</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>reginopolis</t>
+          <t>redencao da serra</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -6011,24 +6028,24 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>registro</t>
+          <t>regente feijo</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="C436" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ribeira</t>
+          <t>reginopolis</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C437" t="n">
         <v>0</v>
@@ -6037,24 +6054,24 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ribeirao bonito</t>
+          <t>registro</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>9</v>
+        <v>222</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ribeirao branco</t>
+          <t>ribeira</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -6063,11 +6080,11 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ribeirao do sul</t>
+          <t>ribeirao bonito</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C440" t="n">
         <v>0</v>
@@ -6076,11 +6093,11 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ribeirao dos indios</t>
+          <t>ribeirao branco</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C441" t="n">
         <v>0</v>
@@ -6089,11 +6106,11 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ribeirao grande</t>
+          <t>ribeirao do sul</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C442" t="n">
         <v>0</v>
@@ -6102,76 +6119,76 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ribeirao pires</t>
+          <t>ribeirao dos indios</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>329</v>
+        <v>1</v>
       </c>
       <c r="C443" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ribeirao preto</t>
+          <t>ribeirao grande</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>2035</v>
+        <v>5</v>
       </c>
       <c r="C444" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>rincao</t>
+          <t>ribeirao pires</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>12</v>
+        <v>329</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>rinopolis</t>
+          <t>ribeirao preto</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>4</v>
+        <v>2035</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>rio claro</t>
+          <t>rincao</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="C447" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>rio das pedras</t>
+          <t>rinopolis</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C448" t="n">
         <v>0</v>
@@ -6180,24 +6197,24 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>rio grande da serra</t>
+          <t>rio claro</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="C449" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>rosana</t>
+          <t>rio das pedras</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C450" t="n">
         <v>0</v>
@@ -6206,24 +6223,24 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>roseira</t>
+          <t>rio grande da serra</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>rubiacea</t>
+          <t>rosana</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C452" t="n">
         <v>0</v>
@@ -6232,11 +6249,11 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>sabino</t>
+          <t>roseira</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C453" t="n">
         <v>1</v>
@@ -6245,7 +6262,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>sagres</t>
+          <t>rubiacea</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6258,7 +6275,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>sales</t>
+          <t>sabino</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -6271,11 +6288,11 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>sales oliveira</t>
+          <t>sagres</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C456" t="n">
         <v>0</v>
@@ -6284,141 +6301,141 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>salesopolis</t>
+          <t>sales</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>saltinho</t>
+          <t>sales oliveira</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>salto</t>
+          <t>salesopolis</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C459" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>salto de pirapora</t>
+          <t>saltinho</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="C460" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>salto grande</t>
+          <t>salto</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>santa adelia</t>
+          <t>salto de pirapora</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>santa barbara d'oeste</t>
+          <t>salto grande</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="C463" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>santa branca</t>
+          <t>santa adelia</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>santa cruz da conceicao</t>
+          <t>santa barbara d'oeste</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>santa cruz da esperanca</t>
+          <t>santa branca</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>santa cruz das palmeiras</t>
+          <t>santa cruz da conceicao</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C467" t="n">
         <v>0</v>
@@ -6427,24 +6444,24 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>santa cruz do rio pardo</t>
+          <t>santa cruz da esperanca</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="C468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>santa ernestina</t>
+          <t>santa cruz das palmeiras</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C469" t="n">
         <v>0</v>
@@ -6453,89 +6470,89 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>santa fe do sul</t>
+          <t>santa cruz do rio pardo</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>santa gertrudes</t>
+          <t>santa ernestina</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>santa isabel</t>
+          <t>santa fe do sul</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>278</v>
+        <v>29</v>
       </c>
       <c r="C472" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>santa lucia</t>
+          <t>santa gertrudes</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>santa maria da serra</t>
+          <t>santa isabel</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>santa rita do passa quatro</t>
+          <t>santa lucia</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>santa rosa de viterbo</t>
+          <t>santa maria da serra</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C476" t="n">
         <v>0</v>
@@ -6544,24 +6561,24 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>santa salete</t>
+          <t>santa rita do passa quatro</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>santana da ponte pensa</t>
+          <t>santa rosa de viterbo</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C478" t="n">
         <v>0</v>
@@ -6570,271 +6587,271 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>santana de parnaiba</t>
+          <t>santa salete</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>779</v>
+        <v>16</v>
       </c>
       <c r="C479" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>santo anastacio</t>
+          <t>santana da ponte pensa</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>santo andre</t>
+          <t>santana de parnaiba</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>4123</v>
+        <v>779</v>
       </c>
       <c r="C481" t="n">
-        <v>204</v>
+        <v>24</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>santo antonio da alegria</t>
+          <t>santo anastacio</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>santo antonio de posse</t>
+          <t>santo andre</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>23</v>
+        <v>4123</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>santo antonio do aracangua</t>
+          <t>santo antonio da alegria</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>santo antonio do jardim</t>
+          <t>santo antonio de posse</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>santo antonio do pinhal</t>
+          <t>santo antonio do aracangua</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>santo expedito</t>
+          <t>santo antonio do jardim</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>santopolis do aguapei</t>
+          <t>santo antonio do pinhal</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>santos</t>
+          <t>santo expedito</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>6534</v>
+        <v>5</v>
       </c>
       <c r="C489" t="n">
-        <v>233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>sao bento do sapucai</t>
+          <t>santopolis do aguapei</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>sao bernardo do campo</t>
+          <t>santos</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>4882</v>
+        <v>6534</v>
       </c>
       <c r="C491" t="n">
-        <v>295</v>
+        <v>233</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>sao caetano do sul</t>
+          <t>sao bento do sapucai</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1126</v>
+        <v>5</v>
       </c>
       <c r="C492" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>sao carlos</t>
+          <t>sao bernardo do campo</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>285</v>
+        <v>4882</v>
       </c>
       <c r="C493" t="n">
-        <v>8</v>
+        <v>295</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>sao francisco</t>
+          <t>sao caetano do sul</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>2</v>
+        <v>1126</v>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>sao joao da boa vista</t>
+          <t>sao carlos</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>72</v>
+        <v>285</v>
       </c>
       <c r="C495" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>sao joao das duas pontes</t>
+          <t>sao francisco</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>sao joao de iracema</t>
+          <t>sao joao da boa vista</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C497" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>sao joao do pau d'alho</t>
+          <t>sao joao das duas pontes</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>sao joaquim da barra</t>
+          <t>sao joao de iracema</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C499" t="n">
         <v>0</v>
@@ -6843,11 +6860,11 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>sao jose da bela vista</t>
+          <t>sao joao do pau d'alho</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C500" t="n">
         <v>0</v>
@@ -6856,206 +6873,206 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>sao jose do rio pardo</t>
+          <t>sao joaquim da barra</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C501" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>sao jose do rio preto</t>
+          <t>sao jose da bela vista</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1323</v>
+        <v>2</v>
       </c>
       <c r="C502" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>sao jose dos campos</t>
+          <t>sao jose do rio pardo</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1687</v>
+        <v>36</v>
       </c>
       <c r="C503" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>sao lourenco da serra</t>
+          <t>sao jose do rio preto</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>34</v>
+        <v>1323</v>
       </c>
       <c r="C504" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>sao luis do paraitinga</t>
+          <t>sao jose dos campos</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>2</v>
+        <v>1687</v>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>sao manuel</t>
+          <t>sao lourenco da serra</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C506" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>sao miguel arcanjo</t>
+          <t>sao luis do paraitinga</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="C507" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>sao paulo</t>
+          <t>sao manuel</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>97676</v>
+        <v>53</v>
       </c>
       <c r="C508" t="n">
-        <v>5819</v>
+        <v>3</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>sao pedro</t>
+          <t>sao miguel arcanjo</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C509" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>sao pedro do turvo</t>
+          <t>sao paulo</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>2</v>
+        <v>97676</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>5819</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>sao roque</t>
+          <t>sao pedro</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C511" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>sao sebastiao</t>
+          <t>sao pedro do turvo</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>371</v>
+        <v>2</v>
       </c>
       <c r="C512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>sao sebastiao da grama</t>
+          <t>sao roque</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="C513" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>sao simao</t>
+          <t>sao sebastiao</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>7</v>
+        <v>371</v>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>sao vicente</t>
+          <t>sao sebastiao da grama</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1775</v>
+        <v>8</v>
       </c>
       <c r="C515" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>sarapui</t>
+          <t>sao simao</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C516" t="n">
         <v>0</v>
@@ -7064,24 +7081,24 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>sarutaia</t>
+          <t>sao vicente</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>3</v>
+        <v>1775</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>sebastianopolis do sul</t>
+          <t>sarapui</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C518" t="n">
         <v>0</v>
@@ -7090,11 +7107,11 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>serra azul</t>
+          <t>sarutaia</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C519" t="n">
         <v>0</v>
@@ -7103,11 +7120,11 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>serra negra</t>
+          <t>sebastianopolis do sul</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C520" t="n">
         <v>0</v>
@@ -7116,167 +7133,167 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>serrana</t>
+          <t>serra azul</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C521" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>sertaozinho</t>
+          <t>serra negra</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="C522" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>sete barras</t>
+          <t>serrana</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>severinia</t>
+          <t>sertaozinho</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>socorro</t>
+          <t>sete barras</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>sorocaba</t>
+          <t>severinia</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1674</v>
+        <v>20</v>
       </c>
       <c r="C526" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>sud mennucci</t>
+          <t>socorro</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>sumare</t>
+          <t>sorocaba</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>453</v>
+        <v>1674</v>
       </c>
       <c r="C528" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>suzano</t>
+          <t>sud mennucci</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1082</v>
+        <v>6</v>
       </c>
       <c r="C529" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>tabapua</t>
+          <t>sumare</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>67</v>
+        <v>453</v>
       </c>
       <c r="C530" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>tabatinga</t>
+          <t>suzano</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>26</v>
+        <v>1082</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>taboao da serra</t>
+          <t>tabapua</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>1449</v>
+        <v>67</v>
       </c>
       <c r="C532" t="n">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>taguai</t>
+          <t>tabatinga</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C533" t="n">
         <v>0</v>
@@ -7285,24 +7302,24 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>taiacu</t>
+          <t>taboao da serra</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>10</v>
+        <v>1449</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>taiuva</t>
+          <t>taguai</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C535" t="n">
         <v>0</v>
@@ -7311,11 +7328,11 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>tambau</t>
+          <t>taiacu</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C536" t="n">
         <v>0</v>
@@ -7324,11 +7341,11 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>tanabi</t>
+          <t>taiuva</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C537" t="n">
         <v>0</v>
@@ -7337,11 +7354,11 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>tapirai</t>
+          <t>tambau</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C538" t="n">
         <v>0</v>
@@ -7350,11 +7367,11 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>tapiratiba</t>
+          <t>tanabi</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C539" t="n">
         <v>0</v>
@@ -7363,11 +7380,11 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>taquaral</t>
+          <t>tapirai</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C540" t="n">
         <v>0</v>
@@ -7376,11 +7393,11 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>taquaritinga</t>
+          <t>tapiratiba</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C541" t="n">
         <v>0</v>
@@ -7389,11 +7406,11 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>taquarituba</t>
+          <t>taquaral</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C542" t="n">
         <v>0</v>
@@ -7402,11 +7419,11 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>taquarivai</t>
+          <t>taquaritinga</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C543" t="n">
         <v>0</v>
@@ -7415,24 +7432,24 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>tarabai</t>
+          <t>taquarituba</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>taruma</t>
+          <t>taquarivai</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C545" t="n">
         <v>0</v>
@@ -7441,63 +7458,63 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>tatui</t>
+          <t>tarabai</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="C546" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>taubate</t>
+          <t>taruma</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="C547" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>tejupa</t>
+          <t>tatui</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>teodoro sampaio</t>
+          <t>taubate</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>9</v>
+        <v>194</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>terra roxa</t>
+          <t>tejupa</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C550" t="n">
         <v>0</v>
@@ -7506,11 +7523,11 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>tiete</t>
+          <t>teodoro sampaio</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C551" t="n">
         <v>0</v>
@@ -7519,11 +7536,11 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>timburi</t>
+          <t>terra roxa</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C552" t="n">
         <v>0</v>
@@ -7532,24 +7549,24 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>torre de pedra</t>
+          <t>tiete</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>torrinha</t>
+          <t>timburi</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C554" t="n">
         <v>0</v>
@@ -7558,24 +7575,24 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>trabiju</t>
+          <t>torre de pedra</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>tremembe</t>
+          <t>torrinha</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C556" t="n">
         <v>0</v>
@@ -7584,11 +7601,11 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>tres fronteiras</t>
+          <t>trabiju</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C557" t="n">
         <v>0</v>
@@ -7597,11 +7614,11 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>tuiuti</t>
+          <t>tremembe</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C558" t="n">
         <v>0</v>
@@ -7610,24 +7627,24 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>tupa</t>
+          <t>tres fronteiras</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>tupi paulista</t>
+          <t>tuiuti</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C560" t="n">
         <v>0</v>
@@ -7636,24 +7653,24 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>turmalina</t>
+          <t>tupa</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>ubarana</t>
+          <t>tupi paulista</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C562" t="n">
         <v>0</v>
@@ -7662,273 +7679,299 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>ubatuba</t>
+          <t>turmalina</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="C563" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ubirajara</t>
+          <t>ubarana</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>uchoa</t>
+          <t>ubatuba</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="C565" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>uniao paulista</t>
+          <t>ubirajara</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>urania</t>
+          <t>uchoa</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C567" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>uru</t>
+          <t>uniao paulista</t>
         </is>
       </c>
       <c r="B568" t="n">
         <v>3</v>
       </c>
       <c r="C568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>urupes</t>
+          <t>urania</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>valentim gentil</t>
+          <t>uru</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>valinhos</t>
+          <t>urupes</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>315</v>
+        <v>3</v>
       </c>
       <c r="C571" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>valparaiso</t>
+          <t>valentim gentil</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>vargem</t>
+          <t>valinhos</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>7</v>
+        <v>315</v>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>vargem grande do sul</t>
+          <t>valparaiso</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>vargem grande paulista</t>
+          <t>vargem</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="C575" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>varzea paulista</t>
+          <t>vargem grande do sul</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="C576" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>vera cruz</t>
+          <t>vargem grande paulista</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>vinhedo</t>
+          <t>varzea paulista</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>157</v>
+        <v>265</v>
       </c>
       <c r="C578" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>viradouro</t>
+          <t>vera cruz</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>vista alegre do alto</t>
+          <t>vinhedo</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="C580" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>votorantim</t>
+          <t>viradouro</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>261</v>
+        <v>9</v>
       </c>
       <c r="C581" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>votuporanga</t>
+          <t>vista alegre do alto</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="C582" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
+          <t>votorantim</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>261</v>
+      </c>
+      <c r="C583" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>votuporanga</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>183</v>
+      </c>
+      <c r="C584" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
           <t>zacarias</t>
         </is>
       </c>
-      <c r="B583" t="n">
-        <v>2</v>
-      </c>
-      <c r="C583" t="n">
+      <c r="B585" t="n">
+        <v>2</v>
+      </c>
+      <c r="C585" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Dados/16-jun.xlsx
+++ b/Dados/16-jun.xlsx
@@ -4572,7 +4572,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>moji mirim</t>
+          <t>mogi mirim</t>
         </is>
       </c>
       <c r="B324" t="n">

--- a/Dados/16-jun.xlsx
+++ b/Dados/16-jun.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C585"/>
+  <dimension ref="A1:C584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4741,46 +4741,46 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>nafo informado</t>
+          <t>natividade da serra</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>natividade da serra</t>
+          <t>nazare paulista</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>nazare paulista</t>
+          <t>neves paulista</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>neves paulista</t>
+          <t>nhandeara</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4793,11 +4793,11 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>nhandeara</t>
+          <t>nipoa</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -4806,11 +4806,11 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>nipoa</t>
+          <t>nova alianca</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -4819,11 +4819,11 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>nova alianca</t>
+          <t>nova campina</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -4832,63 +4832,63 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>nova campina</t>
+          <t>nova castilho</t>
         </is>
       </c>
       <c r="B344" t="n">
         <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>nova castilho</t>
+          <t>nova europa</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>nova europa</t>
+          <t>nova granada</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>nova granada</t>
+          <t>nova guataporanga</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>nova guataporanga</t>
+          <t>nova luzitania</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -4897,37 +4897,37 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>nova luzitania</t>
+          <t>nova odessa</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>nova odessa</t>
+          <t>novais</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C350" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>novais</t>
+          <t>novo horizonte</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -4936,11 +4936,11 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>novo horizonte</t>
+          <t>nuporanga</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -4949,37 +4949,37 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>nuporanga</t>
+          <t>olimpia</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>olimpia</t>
+          <t>onda verde</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>onda verde</t>
+          <t>oriente</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -4988,141 +4988,141 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>oriente</t>
+          <t>orlandia</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>orlandia</t>
+          <t>osasco</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>47</v>
+        <v>4248</v>
       </c>
       <c r="C357" t="n">
-        <v>4</v>
+        <v>405</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>osasco</t>
+          <t>osvaldo cruz</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>4248</v>
+        <v>6</v>
       </c>
       <c r="C358" t="n">
-        <v>405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>osvaldo cruz</t>
+          <t>ourinhos</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ourinhos</t>
+          <t>ouroeste</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="C360" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ouroeste</t>
+          <t>pacaembu</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>pacaembu</t>
+          <t>palestina</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>palestina</t>
+          <t>palmares paulista</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>palmares paulista</t>
+          <t>palmeira d'oeste</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>palmeira d'oeste</t>
+          <t>palmital</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>palmital</t>
+          <t>panorama</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C366" t="n">
         <v>1</v>
@@ -5131,11 +5131,11 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>panorama</t>
+          <t>paraguacu paulista</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -5144,37 +5144,37 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>paraguacu paulista</t>
+          <t>paraibuna</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>paraibuna</t>
+          <t>paraiso</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>paraiso</t>
+          <t>paranapanema</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C370" t="n">
         <v>1</v>
@@ -5183,24 +5183,24 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>paranapanema</t>
+          <t>paranapua</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>paranapua</t>
+          <t>parapua</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -5209,50 +5209,50 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>parapua</t>
+          <t>pardinho</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>pardinho</t>
+          <t>pariquera acu</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>pariquera acu</t>
+          <t>patrocinio paulista</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="C375" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>patrocinio paulista</t>
+          <t>pauliceia</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -5261,37 +5261,37 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>pauliceia</t>
+          <t>paulinia</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>1</v>
+        <v>401</v>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>paulinia</t>
+          <t>paulistania</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>401</v>
+        <v>3</v>
       </c>
       <c r="C378" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>paulistania</t>
+          <t>paulo de faria</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -5300,37 +5300,37 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>paulo de faria</t>
+          <t>pederneiras</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>pederneiras</t>
+          <t>pedra bela</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>pedra bela</t>
+          <t>pedreira</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -5339,141 +5339,141 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>pedreira</t>
+          <t>pedrinhas paulista</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>pedrinhas paulista</t>
+          <t>pedro de toledo</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>4</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>pedro de toledo</t>
+          <t>penapolis</t>
         </is>
       </c>
       <c r="B385" t="n">
+        <v>22</v>
+      </c>
+      <c r="C385" t="n">
         <v>4</v>
-      </c>
-      <c r="C385" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>penapolis</t>
+          <t>pereira barreto</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C386" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>pereira barreto</t>
+          <t>pereiras</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C387" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>pereiras</t>
+          <t>peruibe</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>peruibe</t>
+          <t>piedade</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C389" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>piedade</t>
+          <t>pilar do sul</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="C390" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>pilar do sul</t>
+          <t>pindamonhangaba</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C391" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>pindamonhangaba</t>
+          <t>pindorama</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C392" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>pindorama</t>
+          <t>pinhalzinho</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -5482,11 +5482,11 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>pinhalzinho</t>
+          <t>piquerobi</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -5495,7 +5495,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>piquerobi</t>
+          <t>piquete</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5508,76 +5508,76 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>piquete</t>
+          <t>piracaia</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>piracaia</t>
+          <t>piracicaba</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>30</v>
+        <v>1204</v>
       </c>
       <c r="C397" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>piracicaba</t>
+          <t>piraju</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1204</v>
+        <v>73</v>
       </c>
       <c r="C398" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>piraju</t>
+          <t>pirajui</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>pirajui</t>
+          <t>pirangi</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>pirangi</t>
+          <t>pirapora do bom jesus</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="C401" t="n">
         <v>1</v>
@@ -5586,102 +5586,102 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>pirapora do bom jesus</t>
+          <t>pirapozinho</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>pirapozinho</t>
+          <t>pirassununga</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="C403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>pirassununga</t>
+          <t>piratininga</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>piratininga</t>
+          <t>pitangueiras</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>pitangueiras</t>
+          <t>planalto</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>planalto</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>15</v>
+        <v>365</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>poa</t>
+          <t>poloni</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>poloni</t>
+          <t>pompeia</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C409" t="n">
         <v>1</v>
@@ -5690,50 +5690,50 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>pompeia</t>
+          <t>pontal</t>
         </is>
       </c>
       <c r="B410" t="n">
+        <v>57</v>
+      </c>
+      <c r="C410" t="n">
         <v>4</v>
-      </c>
-      <c r="C410" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>pontal</t>
+          <t>pontalinda</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C411" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>pontalinda</t>
+          <t>populina</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>populina</t>
+          <t>porangaba</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -5742,115 +5742,115 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>porangaba</t>
+          <t>porto feliz</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>porto feliz</t>
+          <t>porto ferreira</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="C415" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>porto ferreira</t>
+          <t>potim</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>potim</t>
+          <t>potirendaba</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>potirendaba</t>
+          <t>pracinha</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>pracinha</t>
+          <t>pradopolis</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>pradopolis</t>
+          <t>praia grande</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>16</v>
+        <v>1949</v>
       </c>
       <c r="C420" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>praia grande</t>
+          <t>pratania</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1949</v>
+        <v>10</v>
       </c>
       <c r="C421" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>pratania</t>
+          <t>presidente alves</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -5859,11 +5859,11 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>presidente alves</t>
+          <t>presidente bernardes</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -5872,63 +5872,63 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>presidente bernardes</t>
+          <t>presidente epitacio</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>presidente epitacio</t>
+          <t>presidente prudente</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="C425" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>presidente prudente</t>
+          <t>presidente venceslau</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="C426" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>presidente venceslau</t>
+          <t>promissao</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C427" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>promissao</t>
+          <t>quadra</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -5937,50 +5937,50 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>quadra</t>
+          <t>quata</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>quata</t>
+          <t>queiroz</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>queiroz</t>
+          <t>quintana</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>quintana</t>
+          <t>rafard</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -5989,37 +5989,37 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>rafard</t>
+          <t>rancharia</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>rancharia</t>
+          <t>redencao da serra</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>redencao da serra</t>
+          <t>regente feijo</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -6028,11 +6028,11 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>regente feijo</t>
+          <t>reginopolis</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C436" t="n">
         <v>0</v>
@@ -6041,37 +6041,37 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>reginopolis</t>
+          <t>registro</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>2</v>
+        <v>222</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>registro</t>
+          <t>ribeira</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ribeira</t>
+          <t>ribeirao bonito</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -6080,11 +6080,11 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ribeirao bonito</t>
+          <t>ribeirao branco</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C440" t="n">
         <v>0</v>
@@ -6093,11 +6093,11 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ribeirao branco</t>
+          <t>ribeirao do sul</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C441" t="n">
         <v>0</v>
@@ -6106,11 +6106,11 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ribeirao do sul</t>
+          <t>ribeirao dos indios</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
         <v>0</v>
@@ -6119,11 +6119,11 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ribeirao dos indios</t>
+          <t>ribeirao grande</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C443" t="n">
         <v>0</v>
@@ -6132,258 +6132,258 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ribeirao grande</t>
+          <t>ribeirao pires</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ribeirao pires</t>
+          <t>ribeirao preto</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>329</v>
+        <v>2035</v>
       </c>
       <c r="C445" t="n">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ribeirao preto</t>
+          <t>rincao</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>2035</v>
+        <v>12</v>
       </c>
       <c r="C446" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>rincao</t>
+          <t>rinopolis</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>rinopolis</t>
+          <t>rio claro</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>rio claro</t>
+          <t>rio das pedras</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="C449" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>rio das pedras</t>
+          <t>rio grande da serra</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>rio grande da serra</t>
+          <t>rosana</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="C451" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>rosana</t>
+          <t>roseira</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>roseira</t>
+          <t>rubiacea</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>rubiacea</t>
+          <t>sabino</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>sabino</t>
+          <t>sagres</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>sagres</t>
+          <t>sales</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>sales</t>
+          <t>sales oliveira</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>sales oliveira</t>
+          <t>salesopolis</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>salesopolis</t>
+          <t>saltinho</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C459" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>saltinho</t>
+          <t>salto</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>salto</t>
+          <t>salto de pirapora</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C461" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>salto de pirapora</t>
+          <t>salto grande</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>salto grande</t>
+          <t>santa adelia</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C463" t="n">
         <v>0</v>
@@ -6392,50 +6392,50 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>santa adelia</t>
+          <t>santa barbara d'oeste</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>santa barbara d'oeste</t>
+          <t>santa branca</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="C465" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>santa branca</t>
+          <t>santa cruz da conceicao</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>santa cruz da conceicao</t>
+          <t>santa cruz da esperanca</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C467" t="n">
         <v>0</v>
@@ -6444,11 +6444,11 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>santa cruz da esperanca</t>
+          <t>santa cruz das palmeiras</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C468" t="n">
         <v>0</v>
@@ -6457,37 +6457,37 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>santa cruz das palmeiras</t>
+          <t>santa cruz do rio pardo</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>santa cruz do rio pardo</t>
+          <t>santa ernestina</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>santa ernestina</t>
+          <t>santa fe do sul</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C471" t="n">
         <v>0</v>
@@ -6496,50 +6496,50 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>santa fe do sul</t>
+          <t>santa gertrudes</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>santa gertrudes</t>
+          <t>santa isabel</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>24</v>
+        <v>278</v>
       </c>
       <c r="C473" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>santa isabel</t>
+          <t>santa lucia</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>278</v>
+        <v>8</v>
       </c>
       <c r="C474" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>santa lucia</t>
+          <t>santa maria da serra</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C475" t="n">
         <v>0</v>
@@ -6548,37 +6548,37 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>santa maria da serra</t>
+          <t>santa rita do passa quatro</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>santa rita do passa quatro</t>
+          <t>santa rosa de viterbo</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>santa rosa de viterbo</t>
+          <t>santa salete</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C478" t="n">
         <v>0</v>
@@ -6587,11 +6587,11 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>santa salete</t>
+          <t>santana da ponte pensa</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C479" t="n">
         <v>0</v>
@@ -6600,72 +6600,72 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>santana da ponte pensa</t>
+          <t>santana de parnaiba</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>santana de parnaiba</t>
+          <t>santo anastacio</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>779</v>
+        <v>13</v>
       </c>
       <c r="C481" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>santo anastacio</t>
+          <t>santo andre</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>13</v>
+        <v>4123</v>
       </c>
       <c r="C482" t="n">
-        <v>2</v>
+        <v>204</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>santo andre</t>
+          <t>santo antonio da alegria</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>4123</v>
+        <v>4</v>
       </c>
       <c r="C483" t="n">
-        <v>204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>santo antonio da alegria</t>
+          <t>santo antonio de posse</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>santo antonio de posse</t>
+          <t>santo antonio do aracangua</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6678,180 +6678,180 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>santo antonio do aracangua</t>
+          <t>santo antonio do jardim</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>santo antonio do jardim</t>
+          <t>santo antonio do pinhal</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>santo antonio do pinhal</t>
+          <t>santo expedito</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>santo expedito</t>
+          <t>santopolis do aguapei</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>santopolis do aguapei</t>
+          <t>santos</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>2</v>
+        <v>6534</v>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>233</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>santos</t>
+          <t>sao bento do sapucai</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>6534</v>
+        <v>5</v>
       </c>
       <c r="C491" t="n">
-        <v>233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>sao bento do sapucai</t>
+          <t>sao bernardo do campo</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>5</v>
+        <v>4882</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>sao bernardo do campo</t>
+          <t>sao caetano do sul</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>4882</v>
+        <v>1126</v>
       </c>
       <c r="C493" t="n">
-        <v>295</v>
+        <v>60</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>sao caetano do sul</t>
+          <t>sao carlos</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>1126</v>
+        <v>285</v>
       </c>
       <c r="C494" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>sao carlos</t>
+          <t>sao francisco</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>285</v>
+        <v>2</v>
       </c>
       <c r="C495" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>sao francisco</t>
+          <t>sao joao da boa vista</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>sao joao da boa vista</t>
+          <t>sao joao das duas pontes</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C497" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>sao joao das duas pontes</t>
+          <t>sao joao de iracema</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>sao joao de iracema</t>
+          <t>sao joao do pau d'alho</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C499" t="n">
         <v>0</v>
@@ -6860,11 +6860,11 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>sao joao do pau d'alho</t>
+          <t>sao joaquim da barra</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C500" t="n">
         <v>0</v>
@@ -6873,11 +6873,11 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>sao joaquim da barra</t>
+          <t>sao jose da bela vista</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C501" t="n">
         <v>0</v>
@@ -6886,89 +6886,89 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>sao jose da bela vista</t>
+          <t>sao jose do rio pardo</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>sao jose do rio pardo</t>
+          <t>sao jose do rio preto</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>36</v>
+        <v>1323</v>
       </c>
       <c r="C503" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>sao jose do rio preto</t>
+          <t>sao jose dos campos</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1323</v>
+        <v>1687</v>
       </c>
       <c r="C504" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>sao jose dos campos</t>
+          <t>sao lourenco da serra</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>1687</v>
+        <v>34</v>
       </c>
       <c r="C505" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>sao lourenco da serra</t>
+          <t>sao luis do paraitinga</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>sao luis do paraitinga</t>
+          <t>sao manuel</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>sao manuel</t>
+          <t>sao miguel arcanjo</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C508" t="n">
         <v>3</v>
@@ -6977,128 +6977,128 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>sao miguel arcanjo</t>
+          <t>sao paulo</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>63</v>
+        <v>97676</v>
       </c>
       <c r="C509" t="n">
-        <v>3</v>
+        <v>5819</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>sao paulo</t>
+          <t>sao pedro</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>97676</v>
+        <v>72</v>
       </c>
       <c r="C510" t="n">
-        <v>5819</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>sao pedro</t>
+          <t>sao pedro do turvo</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="C511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>sao pedro do turvo</t>
+          <t>sao roque</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>sao roque</t>
+          <t>sao sebastiao</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>111</v>
+        <v>371</v>
       </c>
       <c r="C513" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>sao sebastiao</t>
+          <t>sao sebastiao da grama</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>371</v>
+        <v>8</v>
       </c>
       <c r="C514" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>sao sebastiao da grama</t>
+          <t>sao simao</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>sao simao</t>
+          <t>sao vicente</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>7</v>
+        <v>1775</v>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>sao vicente</t>
+          <t>sarapui</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>1775</v>
+        <v>5</v>
       </c>
       <c r="C517" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>sarapui</t>
+          <t>sarutaia</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C518" t="n">
         <v>0</v>
@@ -7107,7 +7107,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>sarutaia</t>
+          <t>sebastianopolis do sul</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7120,11 +7120,11 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>sebastianopolis do sul</t>
+          <t>serra azul</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C520" t="n">
         <v>0</v>
@@ -7133,11 +7133,11 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>serra azul</t>
+          <t>serra negra</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C521" t="n">
         <v>0</v>
@@ -7146,50 +7146,50 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>serra negra</t>
+          <t>serrana</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>serrana</t>
+          <t>sertaozinho</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="C523" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>sertaozinho</t>
+          <t>sete barras</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="C524" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>sete barras</t>
+          <t>severinia</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C525" t="n">
         <v>0</v>
@@ -7198,128 +7198,128 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>severinia</t>
+          <t>socorro</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>socorro</t>
+          <t>sorocaba</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>22</v>
+        <v>1674</v>
       </c>
       <c r="C527" t="n">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>sorocaba</t>
+          <t>sud mennucci</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1674</v>
+        <v>6</v>
       </c>
       <c r="C528" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>sud mennucci</t>
+          <t>sumare</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>6</v>
+        <v>453</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>sumare</t>
+          <t>suzano</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>453</v>
+        <v>1082</v>
       </c>
       <c r="C530" t="n">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>suzano</t>
+          <t>tabapua</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1082</v>
+        <v>67</v>
       </c>
       <c r="C531" t="n">
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>tabapua</t>
+          <t>tabatinga</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>tabatinga</t>
+          <t>taboao da serra</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>26</v>
+        <v>1449</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>taboao da serra</t>
+          <t>taguai</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>1449</v>
+        <v>9</v>
       </c>
       <c r="C534" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>taguai</t>
+          <t>taiacu</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C535" t="n">
         <v>0</v>
@@ -7328,11 +7328,11 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>taiacu</t>
+          <t>taiuva</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C536" t="n">
         <v>0</v>
@@ -7341,11 +7341,11 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>taiuva</t>
+          <t>tambau</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C537" t="n">
         <v>0</v>
@@ -7354,11 +7354,11 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>tambau</t>
+          <t>tanabi</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C538" t="n">
         <v>0</v>
@@ -7367,11 +7367,11 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>tanabi</t>
+          <t>tapirai</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C539" t="n">
         <v>0</v>
@@ -7380,11 +7380,11 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>tapirai</t>
+          <t>tapiratiba</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C540" t="n">
         <v>0</v>
@@ -7393,7 +7393,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>tapiratiba</t>
+          <t>taquaral</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7406,11 +7406,11 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>taquaral</t>
+          <t>taquaritinga</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C542" t="n">
         <v>0</v>
@@ -7419,11 +7419,11 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>taquaritinga</t>
+          <t>taquarituba</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C543" t="n">
         <v>0</v>
@@ -7432,11 +7432,11 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>taquarituba</t>
+          <t>taquarivai</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C544" t="n">
         <v>0</v>
@@ -7445,76 +7445,76 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>taquarivai</t>
+          <t>tarabai</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>tarabai</t>
+          <t>taruma</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>taruma</t>
+          <t>tatui</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>tatui</t>
+          <t>taubate</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="C548" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>taubate</t>
+          <t>tejupa</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>194</v>
+        <v>2</v>
       </c>
       <c r="C549" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>tejupa</t>
+          <t>teodoro sampaio</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C550" t="n">
         <v>0</v>
@@ -7523,11 +7523,11 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>teodoro sampaio</t>
+          <t>terra roxa</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C551" t="n">
         <v>0</v>
@@ -7536,11 +7536,11 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>terra roxa</t>
+          <t>tiete</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C552" t="n">
         <v>0</v>
@@ -7549,11 +7549,11 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>tiete</t>
+          <t>timburi</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C553" t="n">
         <v>0</v>
@@ -7562,37 +7562,37 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>timburi</t>
+          <t>torre de pedra</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>torre de pedra</t>
+          <t>torrinha</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>torrinha</t>
+          <t>trabiju</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C556" t="n">
         <v>0</v>
@@ -7601,11 +7601,11 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>trabiju</t>
+          <t>tremembe</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C557" t="n">
         <v>0</v>
@@ -7614,11 +7614,11 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>tremembe</t>
+          <t>tres fronteiras</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C558" t="n">
         <v>0</v>
@@ -7627,11 +7627,11 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>tres fronteiras</t>
+          <t>tuiuti</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C559" t="n">
         <v>0</v>
@@ -7640,37 +7640,37 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>tuiuti</t>
+          <t>tupa</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>tupa</t>
+          <t>tupi paulista</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>tupi paulista</t>
+          <t>turmalina</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C562" t="n">
         <v>0</v>
@@ -7679,11 +7679,11 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>turmalina</t>
+          <t>ubarana</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C563" t="n">
         <v>0</v>
@@ -7692,102 +7692,102 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ubarana</t>
+          <t>ubatuba</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>ubatuba</t>
+          <t>ubirajara</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C565" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>ubirajara</t>
+          <t>uchoa</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>uchoa</t>
+          <t>uniao paulista</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>uniao paulista</t>
+          <t>urania</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>urania</t>
+          <t>uru</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C569" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>uru</t>
+          <t>urupes</t>
         </is>
       </c>
       <c r="B570" t="n">
         <v>3</v>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>urupes</t>
+          <t>valentim gentil</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C571" t="n">
         <v>0</v>
@@ -7796,50 +7796,50 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>valentim gentil</t>
+          <t>valinhos</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>valinhos</t>
+          <t>valparaiso</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>315</v>
+        <v>46</v>
       </c>
       <c r="C573" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>valparaiso</t>
+          <t>vargem</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>vargem</t>
+          <t>vargem grande do sul</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C575" t="n">
         <v>0</v>
@@ -7848,76 +7848,76 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>vargem grande do sul</t>
+          <t>vargem grande paulista</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>vargem grande paulista</t>
+          <t>varzea paulista</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="C577" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>varzea paulista</t>
+          <t>vera cruz</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>265</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>vera cruz</t>
+          <t>vinhedo</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>vinhedo</t>
+          <t>viradouro</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="C580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>viradouro</t>
+          <t>vista alegre do alto</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C581" t="n">
         <v>2</v>
@@ -7926,52 +7926,39 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>vista alegre do alto</t>
+          <t>votorantim</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="C582" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>votorantim</t>
+          <t>votuporanga</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="C583" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>votuporanga</t>
+          <t>zacarias</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="C584" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>zacarias</t>
-        </is>
-      </c>
-      <c r="B585" t="n">
-        <v>2</v>
-      </c>
-      <c r="C585" t="n">
         <v>0</v>
       </c>
     </row>
